--- a/IT002-OOP/it002m23cncl/it002m23cncl1.xlsx
+++ b/IT002-OOP/it002m23cncl/it002m23cncl1.xlsx
@@ -472,7 +472,9 @@
       <c r="C2" t="n">
         <v>725</v>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>250</v>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -504,7 +506,9 @@
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>550</v>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -521,7 +525,9 @@
       <c r="C5" t="n">
         <v>775</v>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>800</v>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -538,7 +544,9 @@
       <c r="C6" t="n">
         <v>700</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>800</v>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -555,7 +563,9 @@
       <c r="C7" t="n">
         <v>340</v>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>500</v>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -572,7 +582,9 @@
       <c r="C8" t="n">
         <v>775</v>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>600</v>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -589,7 +601,9 @@
       <c r="C9" t="n">
         <v>800</v>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>800</v>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -606,7 +620,9 @@
       <c r="C10" t="n">
         <v>200</v>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>800</v>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -623,7 +639,9 @@
       <c r="C11" t="n">
         <v>500</v>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>457.14</v>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -655,7 +673,9 @@
       <c r="C13" t="n">
         <v>800</v>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>600</v>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -672,7 +692,9 @@
       <c r="C14" t="n">
         <v>671.4299999999999</v>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>800</v>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -689,7 +711,9 @@
       <c r="C15" t="n">
         <v>800</v>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>800</v>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -736,7 +760,9 @@
       <c r="C18" t="n">
         <v>800</v>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>600</v>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -753,7 +779,9 @@
       <c r="C19" t="n">
         <v>800</v>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>800</v>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -770,7 +798,9 @@
       <c r="C20" t="n">
         <v>800</v>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>800</v>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -787,7 +817,9 @@
       <c r="C21" t="n">
         <v>800</v>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>600</v>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -804,7 +836,9 @@
       <c r="C22" t="n">
         <v>800</v>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>450</v>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -821,7 +855,9 @@
       <c r="C23" t="n">
         <v>800</v>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>685.71</v>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>

--- a/IT002-OOP/it002m23cncl/it002m23cncl1.xlsx
+++ b/IT002-OOP/it002m23cncl/it002m23cncl1.xlsx
@@ -475,7 +475,9 @@
       <c r="D2" t="n">
         <v>250</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>150</v>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -509,7 +511,9 @@
       <c r="D4" t="n">
         <v>550</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>700</v>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -528,7 +532,9 @@
       <c r="D5" t="n">
         <v>800</v>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>800</v>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -547,7 +553,9 @@
       <c r="D6" t="n">
         <v>800</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>600</v>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -566,7 +574,9 @@
       <c r="D7" t="n">
         <v>500</v>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>400</v>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -585,7 +595,9 @@
       <c r="D8" t="n">
         <v>600</v>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>433.33</v>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -604,7 +616,9 @@
       <c r="D9" t="n">
         <v>800</v>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>800</v>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -623,7 +637,9 @@
       <c r="D10" t="n">
         <v>800</v>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>300</v>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -657,7 +673,9 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -676,7 +694,9 @@
       <c r="D13" t="n">
         <v>600</v>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>600</v>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -714,7 +734,9 @@
       <c r="D15" t="n">
         <v>800</v>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>800</v>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -744,7 +766,9 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -763,7 +787,9 @@
       <c r="D18" t="n">
         <v>600</v>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>600</v>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -782,7 +808,9 @@
       <c r="D19" t="n">
         <v>800</v>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>100</v>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
     </row>
@@ -801,7 +829,9 @@
       <c r="D20" t="n">
         <v>800</v>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>600</v>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -820,7 +850,9 @@
       <c r="D21" t="n">
         <v>600</v>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>800</v>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -839,7 +871,9 @@
       <c r="D22" t="n">
         <v>450</v>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>600</v>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
     </row>
@@ -858,7 +892,9 @@
       <c r="D23" t="n">
         <v>685.71</v>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>800</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
     </row>

--- a/IT002-OOP/it002m23cncl/it002m23cncl1.xlsx
+++ b/IT002-OOP/it002m23cncl/it002m23cncl1.xlsx
@@ -478,7 +478,9 @@
       <c r="E2" t="n">
         <v>150</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>400</v>
+      </c>
       <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -514,7 +516,9 @@
       <c r="E4" t="n">
         <v>700</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>800</v>
+      </c>
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -535,7 +539,9 @@
       <c r="E5" t="n">
         <v>800</v>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>800</v>
+      </c>
       <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -556,7 +562,9 @@
       <c r="E6" t="n">
         <v>600</v>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>800</v>
+      </c>
       <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -577,7 +585,9 @@
       <c r="E7" t="n">
         <v>400</v>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>800</v>
+      </c>
       <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -598,7 +608,9 @@
       <c r="E8" t="n">
         <v>433.33</v>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>800</v>
+      </c>
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -619,7 +631,9 @@
       <c r="E9" t="n">
         <v>800</v>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>800</v>
+      </c>
       <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -676,7 +690,9 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>300</v>
+      </c>
       <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -697,7 +713,9 @@
       <c r="E13" t="n">
         <v>600</v>
       </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>800</v>
+      </c>
       <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -716,7 +734,9 @@
         <v>800</v>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>800</v>
+      </c>
       <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -737,7 +757,9 @@
       <c r="E15" t="n">
         <v>800</v>
       </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>800</v>
+      </c>
       <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -752,7 +774,9 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>300</v>
+      </c>
       <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -790,7 +814,9 @@
       <c r="E18" t="n">
         <v>600</v>
       </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>700</v>
+      </c>
       <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -811,7 +837,9 @@
       <c r="E19" t="n">
         <v>100</v>
       </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>800</v>
+      </c>
       <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -832,7 +860,9 @@
       <c r="E20" t="n">
         <v>600</v>
       </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>800</v>
+      </c>
       <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -853,7 +883,9 @@
       <c r="E21" t="n">
         <v>800</v>
       </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>800</v>
+      </c>
       <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -874,7 +906,9 @@
       <c r="E22" t="n">
         <v>600</v>
       </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
       <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -895,7 +929,9 @@
       <c r="E23" t="n">
         <v>800</v>
       </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>800</v>
+      </c>
       <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
